--- a/Bank/中医内科学/模拟卷/Bank_20模拟卷之一.xlsx
+++ b/Bank/中医内科学/模拟卷/Bank_20模拟卷之一.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="317">
   <si>
     <t>下例哪项不是内科疾病发生的内部因素</t>
   </si>
@@ -931,6 +931,45 @@
   </si>
   <si>
     <t>诊断：消渴(下消 -- 肾阴亏虚)。分析:患者年高久病，肾阴亏虚，虚火内生，上燔于肺，则口渴多饮，口干唇燥，皮肤干燥；虚火上扰清窍则头晕耳鸣；中灼脾胃则纳食增加；肾失濡养，开阖固摄失权，水谷精微随小便排出体外，故尿频量多，混浊如脂膏；腰膝酸软，舌红少苔，脉细数为肾阴虚内热之象。治法：滋阴补肾 , 润燥止渴。方药：六味地黄丸加减： 生地15g 山药 10g 茯苓 15g丹皮 10g 泽泻 15g 山茱萸 10g 益智仁 15g 桑螵蛸10g 水煎服 , 每日一剂。</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>冬;春</t>
+  </si>
+  <si>
+    <t>湿热之邪;疫毒之邪</t>
+  </si>
+  <si>
+    <t>情志刺激;饮食过饱;感受寒冷;劳倦过度</t>
+  </si>
+  <si>
+    <t>本虚标实;上盛下虚;阴阳失调，气血逆乱</t>
+  </si>
+  <si>
+    <t>阴损及阳，阴阳俱虚;病久入络，血脉瘀滞</t>
+  </si>
+  <si>
+    <t>肺;脾;肾</t>
+  </si>
+  <si>
+    <t>感冒一年四季均可发生，尤以{}{}季节为多见。</t>
+  </si>
+  <si>
+    <t>痢疾的主要病因之一是外感时邪疫毒，又可分为两个方面，其一是感受{}，其二是{}。</t>
+  </si>
+  <si>
+    <t>中风的病性多为{}，{}；而其基本病机为{}。</t>
+  </si>
+  <si>
+    <t>消渴病日久，易发生两种病变：一是{}；二是{}。</t>
+  </si>
+  <si>
+    <t>癃闭的发生与三焦气化功能密切相关，上焦之气不化，当责之于{}；中焦之气不化，当责之于{}；下焦之气不化，当责之于{}。</t>
+  </si>
+  <si>
+    <t>胸痹心痛发病的诱因多为{}、{}、{}、{}。</t>
   </si>
 </sst>
 </file>
@@ -1249,13 +1288,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K68"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3998</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1271,6 +1315,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>63</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -1281,7 +1328,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3999</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1297,6 +1347,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2">
+        <v>63</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1360,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4000</v>
+      </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -1323,6 +1379,9 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3">
+        <v>63</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1392,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4001</v>
+      </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -1349,6 +1411,9 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
+      <c r="G4">
+        <v>63</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1424,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4002</v>
+      </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1375,6 +1443,9 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1456,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4003</v>
+      </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1401,6 +1475,9 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
+      <c r="G6">
+        <v>63</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1488,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4004</v>
+      </c>
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1427,6 +1507,9 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
+      <c r="G7">
+        <v>63</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1520,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4005</v>
+      </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1453,6 +1539,9 @@
       <c r="F8" t="s">
         <v>44</v>
       </c>
+      <c r="G8">
+        <v>63</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -1463,7 +1552,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4006</v>
+      </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1479,6 +1571,9 @@
       <c r="F9" t="s">
         <v>49</v>
       </c>
+      <c r="G9">
+        <v>63</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -1489,7 +1584,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4007</v>
+      </c>
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1505,6 +1603,9 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
+      <c r="G10">
+        <v>63</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1616,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4008</v>
+      </c>
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1531,6 +1635,9 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
       <c r="H11" t="s">
         <v>5</v>
       </c>
@@ -1541,7 +1648,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4009</v>
+      </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -1557,6 +1667,9 @@
       <c r="F12" t="s">
         <v>63</v>
       </c>
+      <c r="G12">
+        <v>63</v>
+      </c>
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1567,7 +1680,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4010</v>
+      </c>
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -1583,6 +1699,9 @@
       <c r="F13" t="s">
         <v>68</v>
       </c>
+      <c r="G13">
+        <v>63</v>
+      </c>
       <c r="H13" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1712,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4011</v>
+      </c>
       <c r="B14" t="s">
         <v>69</v>
       </c>
@@ -1609,6 +1731,9 @@
       <c r="F14" t="s">
         <v>73</v>
       </c>
+      <c r="G14">
+        <v>63</v>
+      </c>
       <c r="H14" t="s">
         <v>5</v>
       </c>
@@ -1619,7 +1744,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4012</v>
+      </c>
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -1635,6 +1763,9 @@
       <c r="F15" t="s">
         <v>76</v>
       </c>
+      <c r="G15">
+        <v>63</v>
+      </c>
       <c r="H15" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1776,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4013</v>
+      </c>
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -1661,6 +1795,9 @@
       <c r="F16" t="s">
         <v>75</v>
       </c>
+      <c r="G16">
+        <v>63</v>
+      </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1808,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4014</v>
+      </c>
       <c r="B17" t="s">
         <v>83</v>
       </c>
@@ -1687,6 +1827,9 @@
       <c r="F17" t="s">
         <v>87</v>
       </c>
+      <c r="G17">
+        <v>63</v>
+      </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1840,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4015</v>
+      </c>
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1713,6 +1859,9 @@
       <c r="F18" t="s">
         <v>91</v>
       </c>
+      <c r="G18">
+        <v>63</v>
+      </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1872,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4016</v>
+      </c>
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -1739,6 +1891,9 @@
       <c r="F19" t="s">
         <v>97</v>
       </c>
+      <c r="G19">
+        <v>63</v>
+      </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1904,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4017</v>
+      </c>
       <c r="B20" t="s">
         <v>98</v>
       </c>
@@ -1765,6 +1923,9 @@
       <c r="F20" t="s">
         <v>102</v>
       </c>
+      <c r="G20">
+        <v>63</v>
+      </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1936,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4018</v>
+      </c>
       <c r="B21" t="s">
         <v>103</v>
       </c>
@@ -1791,6 +1955,9 @@
       <c r="F21" t="s">
         <v>107</v>
       </c>
+      <c r="G21">
+        <v>63</v>
+      </c>
       <c r="H21" t="s">
         <v>5</v>
       </c>
@@ -1801,7 +1968,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4019</v>
+      </c>
       <c r="B22" t="s">
         <v>108</v>
       </c>
@@ -1817,6 +1987,9 @@
       <c r="F22" t="s">
         <v>112</v>
       </c>
+      <c r="G22">
+        <v>63</v>
+      </c>
       <c r="H22" t="s">
         <v>5</v>
       </c>
@@ -1827,7 +2000,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4020</v>
+      </c>
       <c r="B23" t="s">
         <v>113</v>
       </c>
@@ -1843,6 +2019,9 @@
       <c r="F23" t="s">
         <v>117</v>
       </c>
+      <c r="G23">
+        <v>63</v>
+      </c>
       <c r="H23" t="s">
         <v>5</v>
       </c>
@@ -1853,7 +2032,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4021</v>
+      </c>
       <c r="B24" t="s">
         <v>118</v>
       </c>
@@ -1869,6 +2051,9 @@
       <c r="F24" t="s">
         <v>122</v>
       </c>
+      <c r="G24">
+        <v>63</v>
+      </c>
       <c r="H24" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +2064,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4022</v>
+      </c>
       <c r="B25" t="s">
         <v>123</v>
       </c>
@@ -1895,6 +2083,9 @@
       <c r="F25" t="s">
         <v>127</v>
       </c>
+      <c r="G25">
+        <v>63</v>
+      </c>
       <c r="H25" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +2096,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4023</v>
+      </c>
       <c r="B26" t="s">
         <v>128</v>
       </c>
@@ -1921,6 +2115,9 @@
       <c r="F26" t="s">
         <v>130</v>
       </c>
+      <c r="G26">
+        <v>63</v>
+      </c>
       <c r="H26" t="s">
         <v>5</v>
       </c>
@@ -1931,7 +2128,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4024</v>
+      </c>
       <c r="B27" t="s">
         <v>131</v>
       </c>
@@ -1947,6 +2147,9 @@
       <c r="F27" t="s">
         <v>134</v>
       </c>
+      <c r="G27">
+        <v>63</v>
+      </c>
       <c r="H27" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +2160,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4025</v>
+      </c>
       <c r="B28" t="s">
         <v>136</v>
       </c>
@@ -1973,6 +2179,9 @@
       <c r="F28" t="s">
         <v>140</v>
       </c>
+      <c r="G28">
+        <v>63</v>
+      </c>
       <c r="H28" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2192,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4026</v>
+      </c>
       <c r="B29" t="s">
         <v>141</v>
       </c>
@@ -1999,6 +2211,9 @@
       <c r="F29" t="s">
         <v>144</v>
       </c>
+      <c r="G29">
+        <v>63</v>
+      </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2224,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4027</v>
+      </c>
       <c r="B30" t="s">
         <v>145</v>
       </c>
@@ -2025,6 +2243,9 @@
       <c r="F30" t="s">
         <v>146</v>
       </c>
+      <c r="G30">
+        <v>63</v>
+      </c>
       <c r="H30" t="s">
         <v>5</v>
       </c>
@@ -2035,7 +2256,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4028</v>
+      </c>
       <c r="B31" t="s">
         <v>147</v>
       </c>
@@ -2051,6 +2275,9 @@
       <c r="F31" t="s">
         <v>260</v>
       </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
       <c r="H31" t="s">
         <v>148</v>
       </c>
@@ -2064,7 +2291,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4029</v>
+      </c>
       <c r="B32" t="s">
         <v>150</v>
       </c>
@@ -2080,6 +2310,9 @@
       <c r="F32" t="s">
         <v>261</v>
       </c>
+      <c r="G32">
+        <v>63</v>
+      </c>
       <c r="H32" t="s">
         <v>148</v>
       </c>
@@ -2093,7 +2326,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4030</v>
+      </c>
       <c r="B33" t="s">
         <v>152</v>
       </c>
@@ -2109,6 +2345,9 @@
       <c r="F33" t="s">
         <v>262</v>
       </c>
+      <c r="G33">
+        <v>63</v>
+      </c>
       <c r="H33" t="s">
         <v>148</v>
       </c>
@@ -2122,7 +2361,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4031</v>
+      </c>
       <c r="B34" t="s">
         <v>156</v>
       </c>
@@ -2138,6 +2380,9 @@
       <c r="F34" t="s">
         <v>263</v>
       </c>
+      <c r="G34">
+        <v>63</v>
+      </c>
       <c r="H34" t="s">
         <v>148</v>
       </c>
@@ -2151,7 +2396,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4032</v>
+      </c>
       <c r="B35" t="s">
         <v>158</v>
       </c>
@@ -2167,6 +2415,9 @@
       <c r="F35" t="s">
         <v>159</v>
       </c>
+      <c r="G35">
+        <v>63</v>
+      </c>
       <c r="H35" t="s">
         <v>148</v>
       </c>
@@ -2180,7 +2431,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4033</v>
+      </c>
       <c r="B36" t="s">
         <v>160</v>
       </c>
@@ -2196,6 +2450,9 @@
       <c r="F36" t="s">
         <v>164</v>
       </c>
+      <c r="G36">
+        <v>63</v>
+      </c>
       <c r="H36" t="s">
         <v>148</v>
       </c>
@@ -2209,7 +2466,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4034</v>
+      </c>
       <c r="B37" t="s">
         <v>167</v>
       </c>
@@ -2225,6 +2485,9 @@
       <c r="F37" t="s">
         <v>171</v>
       </c>
+      <c r="G37">
+        <v>63</v>
+      </c>
       <c r="H37" t="s">
         <v>148</v>
       </c>
@@ -2238,7 +2501,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4035</v>
+      </c>
       <c r="B38" t="s">
         <v>173</v>
       </c>
@@ -2254,6 +2520,9 @@
       <c r="F38" t="s">
         <v>177</v>
       </c>
+      <c r="G38">
+        <v>63</v>
+      </c>
       <c r="H38" t="s">
         <v>148</v>
       </c>
@@ -2267,7 +2536,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4036</v>
+      </c>
       <c r="B39" t="s">
         <v>179</v>
       </c>
@@ -2283,6 +2555,9 @@
       <c r="F39" t="s">
         <v>183</v>
       </c>
+      <c r="G39">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
         <v>148</v>
       </c>
@@ -2296,7 +2571,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4037</v>
+      </c>
       <c r="B40" t="s">
         <v>185</v>
       </c>
@@ -2312,6 +2590,9 @@
       <c r="F40" t="s">
         <v>189</v>
       </c>
+      <c r="G40">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
         <v>148</v>
       </c>
@@ -2325,7 +2606,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4038</v>
+      </c>
       <c r="B41" t="s">
         <v>192</v>
       </c>
@@ -2341,6 +2625,9 @@
       <c r="F41" t="s">
         <v>196</v>
       </c>
+      <c r="G41">
+        <v>63</v>
+      </c>
       <c r="H41" t="s">
         <v>148</v>
       </c>
@@ -2354,7 +2641,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4039</v>
+      </c>
       <c r="B42" t="s">
         <v>199</v>
       </c>
@@ -2370,6 +2660,9 @@
       <c r="F42" t="s">
         <v>203</v>
       </c>
+      <c r="G42">
+        <v>63</v>
+      </c>
       <c r="H42" t="s">
         <v>148</v>
       </c>
@@ -2383,7 +2676,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4040</v>
+      </c>
       <c r="B43" t="s">
         <v>205</v>
       </c>
@@ -2399,6 +2695,9 @@
       <c r="F43" t="s">
         <v>209</v>
       </c>
+      <c r="G43">
+        <v>63</v>
+      </c>
       <c r="H43" t="s">
         <v>148</v>
       </c>
@@ -2412,7 +2711,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4041</v>
+      </c>
       <c r="B44" t="s">
         <v>211</v>
       </c>
@@ -2428,6 +2730,9 @@
       <c r="F44" t="s">
         <v>215</v>
       </c>
+      <c r="G44">
+        <v>63</v>
+      </c>
       <c r="H44" t="s">
         <v>148</v>
       </c>
@@ -2441,7 +2746,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4042</v>
+      </c>
       <c r="B45" t="s">
         <v>217</v>
       </c>
@@ -2457,6 +2765,9 @@
       <c r="F45" t="s">
         <v>221</v>
       </c>
+      <c r="G45">
+        <v>63</v>
+      </c>
       <c r="H45" t="s">
         <v>148</v>
       </c>
@@ -2470,7 +2781,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4043</v>
+      </c>
       <c r="B46" t="s">
         <v>224</v>
       </c>
@@ -2486,6 +2800,9 @@
       <c r="F46" t="s">
         <v>228</v>
       </c>
+      <c r="G46">
+        <v>63</v>
+      </c>
       <c r="H46" t="s">
         <v>148</v>
       </c>
@@ -2499,7 +2816,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4044</v>
+      </c>
       <c r="B47" t="s">
         <v>230</v>
       </c>
@@ -2515,6 +2835,9 @@
       <c r="F47" t="s">
         <v>233</v>
       </c>
+      <c r="G47">
+        <v>63</v>
+      </c>
       <c r="H47" t="s">
         <v>148</v>
       </c>
@@ -2528,7 +2851,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4045</v>
+      </c>
       <c r="B48" t="s">
         <v>235</v>
       </c>
@@ -2544,6 +2870,9 @@
       <c r="F48" t="s">
         <v>210</v>
       </c>
+      <c r="G48">
+        <v>63</v>
+      </c>
       <c r="H48" t="s">
         <v>148</v>
       </c>
@@ -2557,7 +2886,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4046</v>
+      </c>
       <c r="B49" t="s">
         <v>239</v>
       </c>
@@ -2573,6 +2905,9 @@
       <c r="F49" t="s">
         <v>243</v>
       </c>
+      <c r="G49">
+        <v>63</v>
+      </c>
       <c r="H49" t="s">
         <v>148</v>
       </c>
@@ -2586,7 +2921,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4047</v>
+      </c>
       <c r="B50" t="s">
         <v>244</v>
       </c>
@@ -2602,6 +2940,9 @@
       <c r="F50" t="s">
         <v>248</v>
       </c>
+      <c r="G50">
+        <v>63</v>
+      </c>
       <c r="H50" t="s">
         <v>148</v>
       </c>
@@ -2615,93 +2956,135 @@
         <v>223</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4048</v>
+      </c>
       <c r="B51" t="s">
+        <v>311</v>
+      </c>
+      <c r="G51">
+        <v>63</v>
+      </c>
+      <c r="H51" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4049</v>
+      </c>
+      <c r="B52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52">
+        <v>63</v>
+      </c>
+      <c r="H52" t="s">
+        <v>304</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4050</v>
+      </c>
+      <c r="B53" t="s">
+        <v>316</v>
+      </c>
+      <c r="G53">
+        <v>63</v>
+      </c>
+      <c r="H53" t="s">
+        <v>304</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4051</v>
+      </c>
+      <c r="B54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4052</v>
+      </c>
+      <c r="B55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55">
+        <v>63</v>
+      </c>
+      <c r="H55" t="s">
+        <v>304</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4053</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56">
+        <v>63</v>
+      </c>
+      <c r="H56" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4054</v>
+      </c>
+      <c r="B57" t="s">
         <v>278</v>
       </c>
-      <c r="H51" t="s">
-        <v>288</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>279</v>
-      </c>
-      <c r="H52" t="s">
-        <v>288</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>280</v>
-      </c>
-      <c r="H53" t="s">
-        <v>288</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>281</v>
-      </c>
-      <c r="H54" t="s">
-        <v>288</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>282</v>
-      </c>
-      <c r="H55" t="s">
-        <v>288</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>283</v>
-      </c>
-      <c r="H56" t="s">
-        <v>288</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>284</v>
+      <c r="G57">
+        <v>63</v>
       </c>
       <c r="H57" t="s">
         <v>288</v>
@@ -2710,12 +3093,18 @@
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4055</v>
+      </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="G58">
+        <v>63</v>
       </c>
       <c r="H58" t="s">
         <v>288</v>
@@ -2724,12 +3113,18 @@
         <v>1</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4056</v>
+      </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+      <c r="G59">
+        <v>63</v>
       </c>
       <c r="H59" t="s">
         <v>288</v>
@@ -2741,9 +3136,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4057</v>
+      </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+      <c r="G60">
+        <v>63</v>
       </c>
       <c r="H60" t="s">
         <v>288</v>
@@ -2752,118 +3153,286 @@
         <v>1</v>
       </c>
       <c r="K60" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4058</v>
+      </c>
+      <c r="B61" t="s">
+        <v>282</v>
+      </c>
+      <c r="G61">
+        <v>63</v>
+      </c>
+      <c r="H61" t="s">
+        <v>288</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4059</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="G62">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>288</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4060</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63">
+        <v>63</v>
+      </c>
+      <c r="H63" t="s">
+        <v>288</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4061</v>
+      </c>
+      <c r="B64" t="s">
+        <v>285</v>
+      </c>
+      <c r="G64">
+        <v>63</v>
+      </c>
+      <c r="H64" t="s">
+        <v>288</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4062</v>
+      </c>
+      <c r="B65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65" t="s">
+        <v>288</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4063</v>
+      </c>
+      <c r="B66" t="s">
+        <v>287</v>
+      </c>
+      <c r="G66">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>288</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4064</v>
+      </c>
+      <c r="B67" t="s">
         <v>273</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G67">
+        <v>63</v>
+      </c>
+      <c r="H67" t="s">
         <v>277</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61" t="s">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>4065</v>
+      </c>
+      <c r="B68" t="s">
         <v>274</v>
       </c>
-      <c r="H62" t="s">
+      <c r="G68">
+        <v>63</v>
+      </c>
+      <c r="H68" t="s">
         <v>277</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4066</v>
+      </c>
+      <c r="B69" t="s">
         <v>275</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G69">
+        <v>63</v>
+      </c>
+      <c r="H69" t="s">
         <v>277</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4067</v>
+      </c>
+      <c r="B70" t="s">
         <v>276</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G70">
+        <v>63</v>
+      </c>
+      <c r="H70" t="s">
         <v>277</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64" t="s">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>4068</v>
+      </c>
+      <c r="B71" t="s">
         <v>296</v>
       </c>
-      <c r="H65" t="s">
+      <c r="G71">
+        <v>63</v>
+      </c>
+      <c r="H71" t="s">
         <v>277</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4069</v>
+      </c>
+      <c r="B72" t="s">
         <v>298</v>
       </c>
-      <c r="H66" t="s">
+      <c r="G72">
+        <v>63</v>
+      </c>
+      <c r="H72" t="s">
         <v>297</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4070</v>
+      </c>
+      <c r="B73" t="s">
         <v>299</v>
       </c>
-      <c r="H67" t="s">
+      <c r="G73">
+        <v>63</v>
+      </c>
+      <c r="H73" t="s">
         <v>297</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4071</v>
+      </c>
+      <c r="B74" t="s">
         <v>300</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G74">
+        <v>63</v>
+      </c>
+      <c r="H74" t="s">
         <v>297</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>303</v>
       </c>
     </row>
